--- a/tests/example1.xlsx
+++ b/tests/example1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Forename</t>
   </si>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t>39 Tradescent Road, Vauxhall</t>
+  </si>
+  <si>
+    <t>Freda</t>
+  </si>
+  <si>
+    <t>Jone</t>
+  </si>
+  <si>
+    <t>110 Ave Cresent, London</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>4 Stoke Road, Newhaven</t>
   </si>
 </sst>
 </file>
@@ -101,7 +119,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -157,6 +175,34 @@
         <v>230.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
